--- a/excelEXIT/excels/modelos/RELATÓRIOS.xlsx
+++ b/excelEXIT/excels/modelos/RELATÓRIOS.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIDE\excelEXIT\excels\modelos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="VENCIMENTO PRODUTOS" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="HISTÓRICO CONSUMO" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="VALOR DO ESTOQUE" sheetId="3" r:id="rId6"/>
+    <sheet name="VENCIMENTO PRODUTOS" sheetId="1" r:id="rId1"/>
+    <sheet name="HISTÓRICO CONSUMO" sheetId="2" r:id="rId2"/>
+    <sheet name="VALOR DO ESTOQUE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mh2roRx3yisxVW/rjAT4o5Vu30I8A=="/>
@@ -18,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>CODIGO</t>
   </si>
@@ -27,9 +35,6 @@
   </si>
   <si>
     <t>UNIDADE</t>
-  </si>
-  <si>
-    <t>LOCALIZAÇÃO</t>
   </si>
   <si>
     <t>QUANTIDADE</t>
@@ -122,50 +127,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF112E61"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -175,7 +183,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -191,7 +199,13 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -202,6 +216,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -210,9 +226,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -227,27 +245,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -257,6 +282,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -265,80 +291,78 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -528,468 +552,510 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="17.43"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
-    <col customWidth="1" min="6" max="7" width="14.29"/>
-    <col customWidth="1" min="8" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="20.57"/>
-    <col customWidth="1" min="10" max="10" width="16.86"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
     </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <v>44839.0</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I6" si="1">DAYS(H4,G4)</f>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>44839</v>
       </c>
-      <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J30" si="2">IF(I4&lt;=30,IF(I4&lt;=0,"Fora da Validade","Perto da Validade"),"Na Validade")</f>
+      <c r="H4" s="4">
+        <f>_xlfn.DAYS(G4,F4)</f>
+        <v>44839</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I30" si="0">IF(H4&lt;=30,IF(H4&lt;=0,"Fora da Validade","Perto da Validade"),"Na Validade")</f>
         <v>Na Validade</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H30" si="1">_xlfn.DAYS(G5,F5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>44905.0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>44905</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>44905</v>
       </c>
-      <c r="J6" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Na Validade</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="2"/>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="17" spans="2:9" ht="15.75">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="18" spans="2:9" ht="15.75">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="19" spans="2:9" ht="15.75">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="20" spans="2:9" ht="15.75">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1959,389 +2025,384 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="5" max="5" width="4.71"/>
-    <col customWidth="1" min="6" max="6" width="4.43"/>
-    <col customWidth="1" min="7" max="7" width="5.71"/>
-    <col customWidth="1" min="8" max="9" width="5.0"/>
-    <col customWidth="1" min="10" max="10" width="4.71"/>
-    <col customWidth="1" min="11" max="11" width="4.14"/>
-    <col customWidth="1" min="12" max="12" width="5.43"/>
-    <col customWidth="1" min="13" max="13" width="4.43"/>
-    <col customWidth="1" min="14" max="14" width="5.14"/>
-    <col customWidth="1" min="15" max="15" width="5.43"/>
-    <col customWidth="1" min="16" max="16" width="4.71"/>
-    <col customWidth="1" min="17" max="17" width="7.29"/>
-    <col customWidth="1" min="18" max="26" width="8.71"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="18" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:17" ht="15.75">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:17" ht="15.75">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="4">
-        <v>100001.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q13" si="0">SUM(E4:P4)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q13" si="1">SUM(E4:P4)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4">
-        <v>100002.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="1"/>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4">
-        <f t="shared" si="1"/>
+    <row r="6" spans="2:17">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3333,820 +3394,816 @@
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="Q2:Q3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AE1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="5" max="5" width="9.57"/>
-    <col customWidth="1" min="6" max="6" width="4.29"/>
-    <col customWidth="1" min="7" max="7" width="9.57"/>
-    <col customWidth="1" min="8" max="8" width="4.29"/>
-    <col customWidth="1" min="9" max="9" width="9.57"/>
-    <col customWidth="1" min="10" max="10" width="4.29"/>
-    <col customWidth="1" min="11" max="11" width="9.57"/>
-    <col customWidth="1" min="12" max="12" width="4.29"/>
-    <col customWidth="1" min="13" max="13" width="9.57"/>
-    <col customWidth="1" min="14" max="14" width="4.29"/>
-    <col customWidth="1" min="15" max="15" width="9.57"/>
-    <col customWidth="1" min="16" max="16" width="4.29"/>
-    <col customWidth="1" min="17" max="17" width="9.57"/>
-    <col customWidth="1" min="18" max="18" width="4.29"/>
-    <col customWidth="1" min="19" max="19" width="9.57"/>
-    <col customWidth="1" min="20" max="20" width="4.29"/>
-    <col customWidth="1" min="21" max="21" width="7.71"/>
-    <col customWidth="1" min="22" max="22" width="4.29"/>
-    <col customWidth="1" min="23" max="23" width="7.71"/>
-    <col customWidth="1" min="24" max="24" width="4.29"/>
-    <col customWidth="1" min="25" max="25" width="7.71"/>
-    <col customWidth="1" min="26" max="26" width="4.29"/>
-    <col customWidth="1" min="27" max="27" width="7.71"/>
-    <col customWidth="1" min="28" max="28" width="4.29"/>
-    <col customWidth="1" min="29" max="29" width="7.71"/>
-    <col customWidth="1" min="30" max="30" width="4.29"/>
-    <col customWidth="1" min="31" max="31" width="10.57"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" customWidth="1"/>
+    <col min="30" max="30" width="4.28515625" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:31" ht="18.75">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="15"/>
+    </row>
+    <row r="3" spans="2:31" ht="18.75">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="15"/>
+      <c r="V3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="15"/>
+      <c r="X3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="11"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="14" t="s">
+      <c r="AE3" s="15"/>
+    </row>
+    <row r="4" spans="2:31" ht="15.75">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31">
+      <c r="B5" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4">
-        <v>100001.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="E5" s="8">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
         <f>F5*$E$5</f>
         <v>36</v>
       </c>
-      <c r="H5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
         <f>H5*$E$5</f>
         <v>18</v>
       </c>
-      <c r="J5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
         <f>J5*$E$5</f>
         <v>18</v>
       </c>
-      <c r="L5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M5" s="16">
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
         <f>L5*$E$5</f>
         <v>27</v>
       </c>
-      <c r="N5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O5" s="16">
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="8">
         <f>N5*$E$5</f>
         <v>18</v>
       </c>
-      <c r="P5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="Q5" s="16">
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="8">
         <f>P5*$E$5</f>
         <v>18</v>
       </c>
-      <c r="R5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="S5" s="16">
+      <c r="R5" s="2">
+        <v>4</v>
+      </c>
+      <c r="S5" s="8">
         <f>R5*$E$5</f>
         <v>36</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="16">
+      <c r="T5" s="2"/>
+      <c r="U5" s="8">
         <f>T5*$E$5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="16">
+      <c r="V5" s="2"/>
+      <c r="W5" s="8">
         <f>V5*$E$5</f>
         <v>0</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="16">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="8">
         <f>X5*$E$5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="16">
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="8">
         <f>Z5*$E$5</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="16">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="8">
         <f>AB5*$E$5</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="4">
-        <f t="shared" ref="AD5:AE5" si="1">F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5</f>
+      <c r="AD5" s="2">
+        <f t="shared" ref="AD5:AE5" si="0">F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5</f>
         <v>19</v>
       </c>
-      <c r="AE5" s="16">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="8">
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="4">
-        <v>100002.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="2:31">
+      <c r="B6" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="E6" s="8">
         <v>2.5</v>
       </c>
-      <c r="F6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
         <f>F6*$E$6</f>
         <v>12.5</v>
       </c>
-      <c r="H6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
         <f>H6*$E$6</f>
         <v>7.5</v>
       </c>
-      <c r="J6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
         <f>J6*$E$6</f>
         <v>7.5</v>
       </c>
-      <c r="L6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M6" s="16">
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
         <f>L6*$E$6</f>
         <v>7.5</v>
       </c>
-      <c r="N6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="8">
         <f>N6*$E$6</f>
         <v>7.5</v>
       </c>
-      <c r="P6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="Q6" s="16">
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="8">
         <f>P6*$E$6</f>
         <v>7.5</v>
       </c>
-      <c r="R6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="S6" s="16">
+      <c r="R6" s="2">
+        <v>3</v>
+      </c>
+      <c r="S6" s="8">
         <f>R6*$E$6</f>
         <v>7.5</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="16">
+      <c r="T6" s="2"/>
+      <c r="U6" s="8">
         <f>T6*$E$6</f>
         <v>0</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="16">
+      <c r="V6" s="2"/>
+      <c r="W6" s="8">
         <f>V6*$E$6</f>
         <v>0</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="16">
+      <c r="X6" s="2"/>
+      <c r="Y6" s="8">
         <f>X6*$E$6</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="16">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="8">
         <f>Z6*$E$6</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="16">
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="8">
         <f>AB6*$E$6</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="4">
-        <f t="shared" ref="AD6:AD14" si="2">F6+H6+J6+L6+N6+P6+R6+T6+V6+X6+Z6+AB6</f>
+      <c r="AD6" s="2">
+        <f t="shared" ref="AD6:AD14" si="1">F6+H6+J6+L6+N6+P6+R6+T6+V6+X6+Z6+AB6</f>
         <v>23</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="8">
         <f>AD6*$E$6</f>
         <v>57.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4">
+    <row r="7" spans="2:31">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="2:31">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="8"/>
+    </row>
+    <row r="9" spans="2:31">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10" spans="2:31">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11" spans="2:31">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12" spans="2:31">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13" spans="2:31">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="2:31">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="8"/>
+    </row>
+    <row r="15" spans="2:31">
+      <c r="B15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15:AE15" si="2">SUM(F5:F14)</f>
+        <v>9</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="L15" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4">
+        <v>6</v>
+      </c>
+      <c r="M15" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="N15" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="18">
-        <f t="shared" ref="F15:AE15" si="3">SUM(F5:F14)</f>
-        <v>9</v>
-      </c>
-      <c r="G15" s="19">
-        <f t="shared" si="3"/>
-        <v>48.5</v>
-      </c>
-      <c r="H15" s="18">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I15" s="19">
-        <f t="shared" si="3"/>
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="J15" s="18">
-        <f t="shared" si="3"/>
+      <c r="P15" s="9">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K15" s="19">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="10">
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="L15" s="18">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M15" s="19">
-        <f t="shared" si="3"/>
-        <v>34.5</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="O15" s="19">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="R15" s="18">
-        <f t="shared" si="3"/>
+      <c r="R15" s="9">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="S15" s="19">
-        <f t="shared" si="3"/>
+      <c r="S15" s="10">
+        <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="T15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="18">
-        <f t="shared" si="3"/>
+      <c r="T15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="AE15" s="19">
-        <f t="shared" si="3"/>
+      <c r="AE15" s="10">
+        <f t="shared" si="2"/>
         <v>228.5</v>
       </c>
     </row>
@@ -5132,16 +5189,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -5151,10 +5201,15 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelEXIT/excels/modelos/RELATÓRIOS.xlsx
+++ b/excelEXIT/excels/modelos/RELATÓRIOS.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIDE\excelEXIT\excels\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CF DO BRASIL TECNICA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC0D5B-BF61-46EB-A6C6-984279F6BDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VENCIMENTO PRODUTOS" sheetId="1" r:id="rId1"/>
     <sheet name="HISTÓRICO CONSUMO" sheetId="2" r:id="rId2"/>
     <sheet name="VALOR DO ESTOQUE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mh2roRx3yisxVW/rjAT4o5Vu30I8A=="/>
     </ext>
@@ -26,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>CODIGO</t>
   </si>
@@ -123,15 +135,24 @@
   <si>
     <t>TOTAL MÊS</t>
   </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +197,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -299,8 +327,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,8 +372,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,11 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -571,22 +602,23 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="25" width="8.7109375" customWidth="1"/>
+    <col min="5" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -594,20 +626,26 @@
       <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -616,446 +654,498 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>44839</v>
-      </c>
-      <c r="H4" s="4">
-        <f>_xlfn.DAYS(G4,F4)</f>
-        <v>44839</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I30" si="0">IF(H4&lt;=30,IF(H4&lt;=0,"Fora da Validade","Perto da Validade"),"Na Validade")</f>
-        <v>Na Validade</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <f>_xlfn.DAYS(H4,G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2" t="str">
+        <f t="shared" ref="K4:K30" si="0">IF(I4&lt;=30,IF(I4&lt;=0,"Fora da Validade","Perto da Validade"),"Na Validade")</f>
+        <v>Fora da Validade</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H30" si="1">_xlfn.DAYS(G5,F5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
+      <c r="H5" s="3"/>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I30" si="1">_xlfn.DAYS(H5,G5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>44905</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>44905</v>
-      </c>
-      <c r="I6" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Na Validade</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
+        <v>Fora da Validade</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="4">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4">
+      <c r="H8" s="2"/>
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="4">
+      <c r="H9" s="2"/>
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4">
+      <c r="H10" s="2"/>
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4">
+      <c r="H11" s="2"/>
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4">
+      <c r="H12" s="2"/>
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="4">
+      <c r="H13" s="2"/>
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:13" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4">
+      <c r="H14" s="2"/>
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="J14" s="2"/>
+      <c r="K14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="4">
+      <c r="H15" s="2"/>
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="J15" s="2"/>
+      <c r="K15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:13" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="4">
+      <c r="H16" s="2"/>
+      <c r="I16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="J16" s="2"/>
+      <c r="K16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75">
+    <row r="17" spans="2:11" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="4">
+      <c r="H17" s="2"/>
+      <c r="I17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="J17" s="2"/>
+      <c r="K17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15.75">
+    <row r="18" spans="2:11" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4">
+      <c r="H18" s="2"/>
+      <c r="I18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="J18" s="2"/>
+      <c r="K18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75">
+    <row r="19" spans="2:11" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="4">
+      <c r="H19" s="2"/>
+      <c r="I19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="J19" s="2"/>
+      <c r="K19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75">
+    <row r="20" spans="2:11" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4">
+      <c r="H20" s="2"/>
+      <c r="I20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="J20" s="2"/>
+      <c r="K20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="4">
+      <c r="H21" s="2"/>
+      <c r="I21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="J21" s="2"/>
+      <c r="K21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="4">
+      <c r="H22" s="2"/>
+      <c r="I22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="J22" s="2"/>
+      <c r="K22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="4">
+      <c r="H23" s="2"/>
+      <c r="I23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="J23" s="2"/>
+      <c r="K23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="4">
+      <c r="H24" s="2"/>
+      <c r="I24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="J24" s="2"/>
+      <c r="K24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="4">
+      <c r="H25" s="2"/>
+      <c r="I25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="J25" s="2"/>
+      <c r="K25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="4">
+      <c r="H26" s="2"/>
+      <c r="I26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="J26" s="2"/>
+      <c r="K26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="4">
+      <c r="H27" s="2"/>
+      <c r="I27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="J27" s="2"/>
+      <c r="K27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="4">
+      <c r="H28" s="2"/>
+      <c r="I28" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="J28" s="2"/>
+      <c r="K28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="4">
+      <c r="H29" s="2"/>
+      <c r="I29" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="J29" s="2"/>
+      <c r="K29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="4">
+      <c r="H30" s="2"/>
+      <c r="I30" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="J30" s="2"/>
+      <c r="K30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fora da Validade</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2025,23 +2115,25 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H2:H3"/>
+  <mergeCells count="10">
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -3400,7 +3492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AE1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -3449,10 +3541,10 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="14"/>
@@ -3482,59 +3574,59 @@
       <c r="AE2" s="15"/>
     </row>
     <row r="3" spans="2:31" ht="18.75">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="15"/>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="15"/>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="15"/>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="15"/>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="S3" s="15"/>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="U3" s="15"/>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="W3" s="15"/>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="AC3" s="15"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AD3" s="17" t="s">
         <v>28</v>
       </c>
       <c r="AE3" s="15"/>
@@ -4096,7 +4188,7 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="2:31">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="14"/>
@@ -5189,6 +5281,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -5205,9 +5300,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
